--- a/Workflow_TP_Final_UBA_-_Scraping_y_An_lisis.xlsx
+++ b/Workflow_TP_Final_UBA_-_Scraping_y_An_lisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caa74c1ffc49c2a5/Desktop/Project-celulares-y-tecnologia-scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{08F9FAD7-DC5D-4800-8D2B-865990E78305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0B83F3-7E0E-41E1-AA92-415B611A0188}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{08F9FAD7-DC5D-4800-8D2B-865990E78305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6981D2EA-C40C-40ED-94F1-654315687A9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67376B89-CBC4-417E-B187-E90CF789BEFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67376B89-CBC4-417E-B187-E90CF789BEFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow_TP_Final_UBA_-_Scrapin" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>Paso</t>
   </si>
@@ -533,30 +533,12 @@
     <t>Paginas sugeridas &gt;&gt; Personal, Claro, Fravega y Megatone</t>
   </si>
   <si>
-    <t>https://www.fravega.com/l/celulares/celulares-liberados/</t>
-  </si>
-  <si>
-    <t>LINK CELULARES FRAVEGA</t>
-  </si>
-  <si>
     <t>LINK PERSONAL</t>
   </si>
   <si>
-    <t>LINK MOVISTAR</t>
-  </si>
-  <si>
-    <t>https://tiendaonline.movistar.com.ar/</t>
-  </si>
-  <si>
     <t>https://tienda.personal.com.ar/celulares?_gl=1*wrujnu*_gcl_au*MTI5NDAyNjEyNy4xNzUwMzc5MjU5*_ga*MTQ4NjQ2NDA2NC4xNzUwMzc5MjU5*_ga_1KQZC99M3L*czE3NTAzODE5NzkkbzIkZzEkdDE3NTAzODE5OTQkajQ1JGwwJGgw</t>
   </si>
   <si>
-    <t>LINK MEGATONE</t>
-  </si>
-  <si>
-    <t>https://www.megatone.net/listado/tecnologia/celulares/</t>
-  </si>
-  <si>
     <t>PRECIO DE LISTA</t>
   </si>
   <si>
@@ -603,6 +585,12 @@
   </si>
   <si>
     <t>PRECIO DE PROMOCION SIN IMPUESTOS</t>
+  </si>
+  <si>
+    <t>LINK DE CLARO</t>
+  </si>
+  <si>
+    <t>https://tienda.claro.com.ar/</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1102,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1147,15 +1135,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1555,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74375BB5-EE60-48A2-9F36-3DDE6AA41ADA}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1543,8 @@
     <col min="1" max="1" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="69.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -1690,18 +1670,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1758,6 +1736,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1768,7 +1749,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1776,7 +1760,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1784,7 +1771,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>121</v>
       </c>
@@ -1792,7 +1782,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
@@ -1803,7 +1796,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1807,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
@@ -2090,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8AC6C6-4E94-4231-9319-F3C4BA3CBBA8}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,36 +2101,20 @@
     <col min="3" max="3" width="100" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2155,82 +2138,82 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow_TP_Final_UBA_-_Scraping_y_An_lisis.xlsx
+++ b/Workflow_TP_Final_UBA_-_Scraping_y_An_lisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caa74c1ffc49c2a5/Desktop/Project-celulares-y-tecnologia-scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{08F9FAD7-DC5D-4800-8D2B-865990E78305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6981D2EA-C40C-40ED-94F1-654315687A9A}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{08F9FAD7-DC5D-4800-8D2B-865990E78305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98427BAD-EC07-4AE7-8D99-F3E58A62D48D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67376B89-CBC4-417E-B187-E90CF789BEFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67376B89-CBC4-417E-B187-E90CF789BEFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow_TP_Final_UBA_-_Scrapin" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>Paso</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>https://tienda.claro.com.ar/</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +932,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1135,6 +1144,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1534,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74375BB5-EE60-48A2-9F36-3DDE6AA41ADA}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1782,7 +1803,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1839,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1829,7 +1853,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
@@ -1837,7 +1864,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1845,7 +1875,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1889,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
@@ -1864,7 +1900,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
@@ -1872,7 +1911,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1880,7 +1922,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
@@ -1888,24 +1933,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
@@ -2091,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8AC6C6-4E94-4231-9319-F3C4BA3CBBA8}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
